--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H2">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I2">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J2">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>13160.82713627513</v>
+        <v>13327.0805242798</v>
       </c>
       <c r="R2">
-        <v>13160.82713627513</v>
+        <v>119943.7247185182</v>
       </c>
       <c r="S2">
-        <v>0.09744165700377927</v>
+        <v>0.09742687789311852</v>
       </c>
       <c r="T2">
-        <v>0.09744165700377927</v>
+        <v>0.0974268778931185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H3">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I3">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J3">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>14008.93141655993</v>
+        <v>14047.23655378855</v>
       </c>
       <c r="R3">
-        <v>14008.93141655993</v>
+        <v>126425.128984097</v>
       </c>
       <c r="S3">
-        <v>0.103720949750902</v>
+        <v>0.1026915383281716</v>
       </c>
       <c r="T3">
-        <v>0.103720949750902</v>
+        <v>0.1026915383281715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H4">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I4">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J4">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>9033.308873736711</v>
+        <v>9075.766447699094</v>
       </c>
       <c r="R4">
-        <v>9033.308873736711</v>
+        <v>81681.89802929186</v>
       </c>
       <c r="S4">
-        <v>0.06688185900244067</v>
+        <v>0.06634788376010246</v>
       </c>
       <c r="T4">
-        <v>0.06688185900244067</v>
+        <v>0.06634788376010246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H5">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I5">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J5">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>7004.233206940844</v>
+        <v>7078.871045547522</v>
       </c>
       <c r="R5">
-        <v>7004.233206940844</v>
+        <v>63709.8394099277</v>
       </c>
       <c r="S5">
-        <v>0.05185875345509461</v>
+        <v>0.05174969144361501</v>
       </c>
       <c r="T5">
-        <v>0.05185875345509461</v>
+        <v>0.051749691443615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H6">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I6">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J6">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>4630.485174304592</v>
+        <v>4862.714654574712</v>
       </c>
       <c r="R6">
-        <v>4630.485174304592</v>
+        <v>43764.4318911724</v>
       </c>
       <c r="S6">
-        <v>0.03428372270554535</v>
+        <v>0.03554860391345391</v>
       </c>
       <c r="T6">
-        <v>0.03428372270554535</v>
+        <v>0.03554860391345391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H7">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I7">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J7">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>21850.26217319609</v>
+        <v>22091.30490531648</v>
       </c>
       <c r="R7">
-        <v>21850.26217319609</v>
+        <v>198821.7441478483</v>
       </c>
       <c r="S7">
-        <v>0.1617775030457415</v>
+        <v>0.1614972507736257</v>
       </c>
       <c r="T7">
-        <v>0.1617775030457415</v>
+        <v>0.1614972507736257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H8">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I8">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J8">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>23258.32723495463</v>
+        <v>23285.05370861183</v>
       </c>
       <c r="R8">
-        <v>23258.32723495463</v>
+        <v>209565.4833775064</v>
       </c>
       <c r="S8">
-        <v>0.1722026983139557</v>
+        <v>0.1702240847326332</v>
       </c>
       <c r="T8">
-        <v>0.1722026983139557</v>
+        <v>0.1702240847326332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H9">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I9">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J9">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>14997.55031646664</v>
+        <v>15044.21943577898</v>
       </c>
       <c r="R9">
-        <v>14997.55031646664</v>
+        <v>135397.9749220108</v>
       </c>
       <c r="S9">
-        <v>0.1110406009213548</v>
+        <v>0.1099799260082977</v>
       </c>
       <c r="T9">
-        <v>0.1110406009213548</v>
+        <v>0.1099799260082977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H10">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I10">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J10">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>11628.77760714811</v>
+        <v>11734.11523759497</v>
       </c>
       <c r="R10">
-        <v>11628.77760714811</v>
+        <v>105607.0371383547</v>
       </c>
       <c r="S10">
-        <v>0.08609849116897235</v>
+        <v>0.08578159412739993</v>
       </c>
       <c r="T10">
-        <v>0.08609849116897235</v>
+        <v>0.0857815941273999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H11">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I11">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J11">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>7687.762630722377</v>
+        <v>8060.558492615983</v>
       </c>
       <c r="R11">
-        <v>7687.762630722377</v>
+        <v>72545.02643354384</v>
       </c>
       <c r="S11">
-        <v>0.05691954780900949</v>
+        <v>0.0589262627009508</v>
       </c>
       <c r="T11">
-        <v>0.05691954780900949</v>
+        <v>0.05892626270095079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H12">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I12">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J12">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>13.21473905836375</v>
+        <v>9.916689799581333</v>
       </c>
       <c r="R12">
-        <v>13.21473905836375</v>
+        <v>89.25020819623199</v>
       </c>
       <c r="S12">
-        <v>9.784081633975254E-05</v>
+        <v>7.249540696085464E-05</v>
       </c>
       <c r="T12">
-        <v>9.784081633975254E-05</v>
+        <v>7.249540696085464E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H13">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I13">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J13">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>14.06631750721018</v>
+        <v>10.452558397278</v>
       </c>
       <c r="R13">
-        <v>14.06631750721018</v>
+        <v>94.07302557550199</v>
       </c>
       <c r="S13">
-        <v>0.000104145831538652</v>
+        <v>7.641284441757558E-05</v>
       </c>
       <c r="T13">
-        <v>0.000104145831538652</v>
+        <v>7.641284441757558E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H14">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I14">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J14">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>9.070312858300953</v>
+        <v>6.753284066327333</v>
       </c>
       <c r="R14">
-        <v>9.070312858300953</v>
+        <v>60.779556596946</v>
       </c>
       <c r="S14">
-        <v>6.715583339131047E-05</v>
+        <v>4.936950601513467E-05</v>
       </c>
       <c r="T14">
-        <v>6.715583339131047E-05</v>
+        <v>4.936950601513468E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H15">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I15">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J15">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>7.032925299849074</v>
+        <v>5.267392821859333</v>
       </c>
       <c r="R15">
-        <v>7.032925299849074</v>
+        <v>47.40653539673399</v>
       </c>
       <c r="S15">
-        <v>5.207118729735504E-05</v>
+        <v>3.850698105526085E-05</v>
       </c>
       <c r="T15">
-        <v>5.207118729735504E-05</v>
+        <v>3.850698105526085E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H16">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I16">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J16">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>4.649453462039454</v>
+        <v>3.618349324553333</v>
       </c>
       <c r="R16">
-        <v>4.649453462039454</v>
+        <v>32.56514392097999</v>
       </c>
       <c r="S16">
-        <v>3.442416231228671E-05</v>
+        <v>2.645174066260517E-05</v>
       </c>
       <c r="T16">
-        <v>3.442416231228671E-05</v>
+        <v>2.645174066260517E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H17">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I17">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J17">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>2133.551249622313</v>
+        <v>19.08215986912978</v>
       </c>
       <c r="R17">
-        <v>2133.551249622313</v>
+        <v>171.739438822168</v>
       </c>
       <c r="S17">
-        <v>0.01579663397391317</v>
+        <v>0.000139499064038794</v>
       </c>
       <c r="T17">
-        <v>0.01579663397391317</v>
+        <v>0.000139499064038794</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H18">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I18">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J18">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>2271.040628388198</v>
+        <v>20.113303371322</v>
       </c>
       <c r="R18">
-        <v>2271.040628388198</v>
+        <v>181.019730341898</v>
       </c>
       <c r="S18">
-        <v>0.0168145937684341</v>
+        <v>0.0001470371810251318</v>
       </c>
       <c r="T18">
-        <v>0.0168145937684341</v>
+        <v>0.0001470371810251317</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H19">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I19">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J19">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>1464.423720197884</v>
+        <v>12.99498610925044</v>
       </c>
       <c r="R19">
-        <v>1464.423720197884</v>
+        <v>116.954874983254</v>
       </c>
       <c r="S19">
-        <v>0.0108424700343042</v>
+        <v>9.499912021857708E-05</v>
       </c>
       <c r="T19">
-        <v>0.0108424700343042</v>
+        <v>9.499912021857707E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H20">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I20">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J20">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>1135.482622526434</v>
+        <v>10.13576444878511</v>
       </c>
       <c r="R20">
-        <v>1135.482622526434</v>
+        <v>91.22188003906599</v>
       </c>
       <c r="S20">
-        <v>0.008407017818280349</v>
+        <v>7.409693994916138E-05</v>
       </c>
       <c r="T20">
-        <v>0.008407017818280349</v>
+        <v>7.409693994916137E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1165593333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.349678</v>
+      </c>
+      <c r="I21">
+        <v>0.0005065319859055423</v>
+      </c>
+      <c r="J21">
+        <v>0.0005065319859055422</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>6.962597567224444</v>
+      </c>
+      <c r="R21">
+        <v>62.66337810501999</v>
+      </c>
+      <c r="S21">
+        <v>5.089968067387795E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.089968067387794E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.589642</v>
+      </c>
+      <c r="H22">
+        <v>40.768926</v>
+      </c>
+      <c r="I22">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J22">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>2224.787271789251</v>
+      </c>
+      <c r="R22">
+        <v>20023.08544610325</v>
+      </c>
+      <c r="S22">
+        <v>0.01626418310235947</v>
+      </c>
+      <c r="T22">
+        <v>0.01626418310235947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.589642</v>
+      </c>
+      <c r="H23">
+        <v>40.768926</v>
+      </c>
+      <c r="I23">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J23">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>2345.008198288074</v>
+      </c>
+      <c r="R23">
+        <v>21105.07378459266</v>
+      </c>
+      <c r="S23">
+        <v>0.01714305147153153</v>
+      </c>
+      <c r="T23">
+        <v>0.01714305147153153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.589642</v>
+      </c>
+      <c r="H24">
+        <v>40.768926</v>
+      </c>
+      <c r="I24">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J24">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>1515.084240527169</v>
+      </c>
+      <c r="R24">
+        <v>13635.75816474452</v>
+      </c>
+      <c r="S24">
+        <v>0.01107593872721839</v>
+      </c>
+      <c r="T24">
+        <v>0.01107593872721839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1612545431083</v>
-      </c>
-      <c r="H21">
-        <v>13.1612545431083</v>
-      </c>
-      <c r="I21">
-        <v>0.05741857899232491</v>
-      </c>
-      <c r="J21">
-        <v>0.05741857899232491</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q21">
-        <v>750.6653896216502</v>
-      </c>
-      <c r="R21">
-        <v>750.6653896216502</v>
-      </c>
-      <c r="S21">
-        <v>0.005557863397393083</v>
-      </c>
-      <c r="T21">
-        <v>0.005557863397393083</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.589642</v>
+      </c>
+      <c r="H25">
+        <v>40.768926</v>
+      </c>
+      <c r="I25">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J25">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>1181.727848952325</v>
+      </c>
+      <c r="R25">
+        <v>10635.55064057092</v>
+      </c>
+      <c r="S25">
+        <v>0.008638955443618999</v>
+      </c>
+      <c r="T25">
+        <v>0.008638955443618998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.589642</v>
+      </c>
+      <c r="H26">
+        <v>40.768926</v>
+      </c>
+      <c r="I26">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J26">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>811.7686127979266</v>
+      </c>
+      <c r="R26">
+        <v>7305.917515181339</v>
+      </c>
+      <c r="S26">
+        <v>0.005934389108885776</v>
+      </c>
+      <c r="T26">
+        <v>0.005934389108885775</v>
       </c>
     </row>
   </sheetData>
